--- a/src/data/permission-rules-filtered/photography_permission_filtered.xlsx
+++ b/src/data/permission-rules-filtered/photography_permission_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,34 +37,94 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'WRITE_EXTERNAL_STORAGE', 'BIND_GET_INSTALL_REFERRER_SERVICE', 'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'WRITE_EXTERNAL_STORAGE', 'BIND_GET_INSTALL_REFERRER_SERVICE', 'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'WAKE_LOCK', 'WRITE_EXTERNAL_STORAGE', 'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WAKE_LOCK', 'INTERNET', 'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WAKE_LOCK', 'READ_EXTERNAL_STORAGE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WAKE_LOCK', 'INTERNET'})</t>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE', 'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE'})</t>
   </si>
   <si>
     <t>frozenset({'WAKE_LOCK'})</t>
   </si>
   <si>
-    <t>frozenset({'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'WRITE_EXTERNAL_STORAGE', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
-  </si>
-  <si>
-    <t>frozenset({'INTERNET', 'WRITE_EXTERNAL_STORAGE', 'BIND_GET_INSTALL_REFERRER_SERVICE'})</t>
+    <t>frozenset({'WAKE_LOCK', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE', 'ACCESS_NETWORK_STATE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'WAKE_LOCK', 'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'READ_EXTERNAL_STORAGE', 'INTERNET', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'RECEIVE', 'ACCESS_NETWORK_STATE', 'WRITE_EXTERNAL_STORAGE'})</t>
+  </si>
+  <si>
+    <t>frozenset({'ACCESS_NETWORK_STATE', 'WAKE_LOCK', 'INTERNET'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -422,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,120 +510,2030 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F3">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="D2">
-        <v>0.9818181818181818</v>
-      </c>
-      <c r="E2">
-        <v>1.081242807825086</v>
-      </c>
-      <c r="F2">
-        <v>0.04663760073986001</v>
-      </c>
-      <c r="G2">
-        <v>5.057471264367813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="D3">
-        <v>0.9818181818181818</v>
-      </c>
-      <c r="E3">
-        <v>1.067727272727273</v>
-      </c>
-      <c r="F3">
-        <v>0.03937111903818213</v>
-      </c>
-      <c r="G3">
-        <v>4.425287356321839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F6">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F8">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="D4">
-        <v>0.8059701492537314</v>
-      </c>
-      <c r="E4">
-        <v>1.062415196743555</v>
-      </c>
-      <c r="F4">
-        <v>0.03646452635751096</v>
-      </c>
-      <c r="G4">
-        <v>1.244031830238728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F9">
+        <v>0.03131193024177559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F11">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F12">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.048192771084338</v>
+      </c>
+      <c r="F13">
+        <v>0.03699299775399656</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F15">
+        <v>0.02853745541022589</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F16">
+        <v>0.02814110186286168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F18">
+        <v>0.02814110186286168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F19">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="D5">
-        <v>0.8059701492537314</v>
-      </c>
-      <c r="E5">
-        <v>1.062415196743555</v>
-      </c>
-      <c r="F5">
-        <v>0.03646452635751096</v>
-      </c>
-      <c r="G5">
-        <v>1.244031830238728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="C22">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F22">
+        <v>0.03131193024177559</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D23">
+        <v>0.9875</v>
+      </c>
+      <c r="E23">
+        <v>1.035090361445783</v>
+      </c>
+      <c r="F23">
+        <v>0.0307834588452901</v>
+      </c>
+      <c r="G23">
+        <v>3.678160919540247</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D24">
+        <v>0.9875</v>
+      </c>
+      <c r="E24">
+        <v>1.035090361445783</v>
+      </c>
+      <c r="F24">
+        <v>0.0307834588452901</v>
+      </c>
+      <c r="G24">
+        <v>3.678160919540247</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D25">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="E25">
+        <v>1.033634538152611</v>
+      </c>
+      <c r="F25">
+        <v>0.02655568767340477</v>
+      </c>
+      <c r="G25">
+        <v>3.310344827586222</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="D26">
+        <v>0.9880952380952379</v>
+      </c>
+      <c r="E26">
+        <v>1.023384353741496</v>
+      </c>
+      <c r="F26">
+        <v>0.02179944510503351</v>
+      </c>
+      <c r="G26">
+        <v>2.896551724137911</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="D27">
+        <v>0.9880952380952379</v>
+      </c>
+      <c r="E27">
+        <v>1.023384353741496</v>
+      </c>
+      <c r="F27">
+        <v>0.02179944510503351</v>
+      </c>
+      <c r="G27">
+        <v>2.896551724137911</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="D28">
+        <v>0.9880952380952379</v>
+      </c>
+      <c r="E28">
+        <v>1.023384353741496</v>
+      </c>
+      <c r="F28">
+        <v>0.02179944510503351</v>
+      </c>
+      <c r="G28">
+        <v>2.896551724137911</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D29">
+        <v>0.9875</v>
+      </c>
+      <c r="E29">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F29">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G29">
+        <v>2.758620689655179</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D30">
+        <v>0.9875</v>
+      </c>
+      <c r="E30">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F30">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G30">
+        <v>2.758620689655179</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D31">
+        <v>0.9875</v>
+      </c>
+      <c r="E31">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F31">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G31">
+        <v>2.758620689655179</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D32">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="E32">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F32">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G32">
+        <v>2.482758620689661</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D33">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="E33">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F33">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G33">
+        <v>2.482758620689661</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D34">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="E34">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F34">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G34">
+        <v>2.482758620689661</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D35">
+        <v>0.9518072289156628</v>
+      </c>
+      <c r="E35">
+        <v>1.035090361445783</v>
+      </c>
+      <c r="F35">
+        <v>0.0307834588452901</v>
+      </c>
+      <c r="G35">
+        <v>1.66954022988506</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D36">
+        <v>0.9518072289156628</v>
+      </c>
+      <c r="E36">
+        <v>1.035090361445783</v>
+      </c>
+      <c r="F36">
+        <v>0.0307834588452901</v>
+      </c>
+      <c r="G36">
+        <v>1.66954022988506</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D37">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E37">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F37">
+        <v>0.03131193024177559</v>
+      </c>
+      <c r="G37">
+        <v>1.544827586206896</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D38">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E38">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F38">
+        <v>0.03131193024177559</v>
+      </c>
+      <c r="G38">
+        <v>1.544827586206896</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D39">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E39">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F39">
+        <v>0.03131193024177559</v>
+      </c>
+      <c r="G39">
+        <v>1.544827586206896</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D40">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E40">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F40">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G40">
+        <v>1.351724137931034</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D41">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E41">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F41">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G41">
+        <v>1.351724137931034</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D42">
+        <v>0.9404761904761904</v>
+      </c>
+      <c r="E42">
+        <v>1.022767857142857</v>
+      </c>
+      <c r="F42">
+        <v>0.02021403091557672</v>
+      </c>
+      <c r="G42">
+        <v>1.351724137931034</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="D6">
-        <v>0.8059701492537314</v>
-      </c>
-      <c r="E6">
-        <v>1.062415196743555</v>
-      </c>
-      <c r="F6">
-        <v>0.03646452635751096</v>
-      </c>
-      <c r="G6">
-        <v>1.244031830238728</v>
+      <c r="C43">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D43">
+        <v>0.8433734939759037</v>
+      </c>
+      <c r="E43">
+        <v>1.048192771084337</v>
+      </c>
+      <c r="F43">
+        <v>0.03699299775399656</v>
+      </c>
+      <c r="G43">
+        <v>1.247568523430593</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D44">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E44">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F44">
+        <v>0.02853745541022589</v>
+      </c>
+      <c r="G44">
+        <v>1.206896551724138</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D45">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E45">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F45">
+        <v>0.02853745541022589</v>
+      </c>
+      <c r="G45">
+        <v>1.206896551724138</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D46">
+        <v>0.8554216867469878</v>
+      </c>
+      <c r="E46">
+        <v>1.033634538152611</v>
+      </c>
+      <c r="F46">
+        <v>0.02655568767340477</v>
+      </c>
+      <c r="G46">
+        <v>1.192528735632185</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D47">
+        <v>0.8452380952380952</v>
+      </c>
+      <c r="E47">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F47">
+        <v>0.02814110186286168</v>
+      </c>
+      <c r="G47">
+        <v>1.188328912466844</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D48">
+        <v>0.8452380952380952</v>
+      </c>
+      <c r="E48">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F48">
+        <v>0.02814110186286168</v>
+      </c>
+      <c r="G48">
+        <v>1.188328912466844</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D49">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E49">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F49">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G49">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D50">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E50">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F50">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G50">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D51">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E51">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F51">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G51">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D52">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E52">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F52">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G52">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D53">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E53">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F53">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G53">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D54">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="E54">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="F54">
+        <v>0.02774474831549734</v>
+      </c>
+      <c r="G54">
+        <v>1.172413793103448</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D55">
+        <v>0.8452380952380952</v>
+      </c>
+      <c r="E55">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F55">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G55">
+        <v>1.114058355437666</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D56">
+        <v>0.8452380952380952</v>
+      </c>
+      <c r="E56">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F56">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G56">
+        <v>1.114058355437666</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="D57">
+        <v>0.8452380952380952</v>
+      </c>
+      <c r="E57">
+        <v>1.021329365079365</v>
+      </c>
+      <c r="F57">
+        <v>0.01704320253666269</v>
+      </c>
+      <c r="G57">
+        <v>1.114058355437666</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>0.9195402298850576</v>
+      </c>
+      <c r="D58">
+        <v>0.9195402298850576</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="D59">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="D60">
+        <v>0.9540229885057472</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D61">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="D62">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="D63">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="D64">
+        <v>0.9080459770114944</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
